--- a/design/officemapspec.xlsx
+++ b/design/officemapspec.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>X</t>
   </si>
@@ -98,9 +98,6 @@
     <t>x=-10</t>
   </si>
   <si>
-    <t>x=25 z=-25</t>
-  </si>
-  <si>
     <t>x=20 z=-65</t>
   </si>
   <si>
@@ -123,6 +120,21 @@
   </si>
   <si>
     <t>x=-340</t>
+  </si>
+  <si>
+    <t>x=35 z=-25</t>
+  </si>
+  <si>
+    <t>x=75 z=-20</t>
+  </si>
+  <si>
+    <t>x=-75 z=20</t>
+  </si>
+  <si>
+    <t>z=100</t>
+  </si>
+  <si>
+    <t>z=140</t>
   </si>
 </sst>
 </file>
@@ -138,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +184,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -364,6 +382,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:BJ89"/>
+  <dimension ref="C8:BJ97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AS9" sqref="AS9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,414 +676,252 @@
     <col min="1" max="310" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:62" x14ac:dyDescent="0.25">
-      <c r="L1" s="15"/>
-    </row>
-    <row r="2" spans="3:62" x14ac:dyDescent="0.25">
-      <c r="L2" s="16"/>
-    </row>
-    <row r="3" spans="3:62" x14ac:dyDescent="0.25">
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="3:62" x14ac:dyDescent="0.25">
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5" spans="3:62" x14ac:dyDescent="0.25">
-      <c r="L5" s="16"/>
-    </row>
-    <row r="6" spans="3:62" x14ac:dyDescent="0.25">
-      <c r="L6" s="16"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="10"/>
-      <c r="BA6" s="10"/>
-      <c r="BJ6" s="11"/>
-    </row>
-    <row r="7" spans="3:62" x14ac:dyDescent="0.25">
-      <c r="L7" s="16"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="10"/>
-      <c r="BA7" s="10"/>
-      <c r="BJ7" s="12"/>
-    </row>
-    <row r="8" spans="3:62" x14ac:dyDescent="0.25">
-      <c r="L8" s="17" t="s">
+    <row r="8" spans="12:62" x14ac:dyDescent="0.25">
+      <c r="M8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="23"/>
+      <c r="AK8" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT8" s="22"/>
+      <c r="AU8" s="22"/>
+      <c r="AV8" s="22"/>
+      <c r="AW8" s="22"/>
+      <c r="AX8" s="22"/>
+      <c r="AY8" s="22"/>
+      <c r="AZ8" s="23"/>
+    </row>
+    <row r="9" spans="12:62" x14ac:dyDescent="0.25">
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="12:62" x14ac:dyDescent="0.25">
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="12:62" x14ac:dyDescent="0.25">
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="12:62" x14ac:dyDescent="0.25">
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="12:62" x14ac:dyDescent="0.25">
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="12:62" x14ac:dyDescent="0.25">
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="12:62" x14ac:dyDescent="0.25">
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="12:62" x14ac:dyDescent="0.25">
+      <c r="L16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="10"/>
+      <c r="BA16" s="10"/>
+      <c r="BJ16" s="11"/>
+    </row>
+    <row r="17" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="D17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5"/>
-      <c r="AW8" s="5"/>
-      <c r="AX8" s="5"/>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="10"/>
-      <c r="BA8" s="10"/>
-      <c r="BJ8" s="12"/>
-    </row>
-    <row r="9" spans="3:62" x14ac:dyDescent="0.25">
-      <c r="D9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-      <c r="Q9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="8"/>
-      <c r="AQ9" s="8"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT9" s="8"/>
-      <c r="AU9" s="8"/>
-      <c r="AV9" s="8"/>
-      <c r="AW9" s="8"/>
-      <c r="AX9" s="8"/>
-      <c r="AY9" s="9"/>
-      <c r="AZ9" s="10"/>
-      <c r="BA9" s="10"/>
-      <c r="BJ9" s="12"/>
-    </row>
-    <row r="10" spans="3:62" x14ac:dyDescent="0.25">
-      <c r="C10" s="15"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="2"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="10"/>
-      <c r="BA10" s="10"/>
-      <c r="BJ10" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="3:62" x14ac:dyDescent="0.25">
-      <c r="C11" s="16"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="6"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="5"/>
-      <c r="AW11" s="5"/>
-      <c r="AX11" s="5"/>
-      <c r="AY11" s="6"/>
-      <c r="AZ11" s="10"/>
-      <c r="BA11" s="10"/>
-      <c r="BJ11" s="11"/>
-    </row>
-    <row r="12" spans="3:62" x14ac:dyDescent="0.25">
-      <c r="C12" s="16"/>
-      <c r="Q12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="5"/>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="10"/>
-      <c r="BA12" s="10"/>
-      <c r="BJ12" s="12"/>
-    </row>
-    <row r="13" spans="3:62" x14ac:dyDescent="0.25">
-      <c r="C13" s="16"/>
-      <c r="Q13" s="14">
-        <v>0</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="8"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM13" s="8"/>
-      <c r="AN13" s="8"/>
-      <c r="AO13" s="8"/>
-      <c r="AP13" s="8"/>
-      <c r="AQ13" s="8"/>
-      <c r="AR13" s="9"/>
-      <c r="AS13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT13" s="8"/>
-      <c r="AU13" s="8"/>
-      <c r="AV13" s="8"/>
-      <c r="AW13" s="8"/>
-      <c r="AX13" s="8"/>
-      <c r="AY13" s="9"/>
-      <c r="AZ13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA13" s="10"/>
-      <c r="BJ13" s="12"/>
-    </row>
-    <row r="14" spans="3:62" x14ac:dyDescent="0.25">
-      <c r="C14" s="16"/>
-      <c r="BJ14" s="12"/>
-    </row>
-    <row r="15" spans="3:62" x14ac:dyDescent="0.25">
-      <c r="C15" s="16"/>
-      <c r="BJ15" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="3:62" x14ac:dyDescent="0.25">
-      <c r="C16" s="16"/>
-      <c r="BJ16" s="11"/>
-    </row>
-    <row r="17" spans="3:62" x14ac:dyDescent="0.25">
-      <c r="C17" s="17" t="s">
-        <v>26</v>
-      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="5"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="10"/>
+      <c r="BA17" s="10"/>
       <c r="BJ17" s="12"/>
     </row>
     <row r="18" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="10"/>
       <c r="BJ18" s="12"/>
     </row>
     <row r="19" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C19" s="16"/>
+      <c r="Q19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT19" s="8"/>
+      <c r="AU19" s="8"/>
+      <c r="AV19" s="8"/>
+      <c r="AW19" s="8"/>
+      <c r="AX19" s="8"/>
+      <c r="AY19" s="9"/>
+      <c r="AZ19" s="10"/>
+      <c r="BA19" s="10"/>
       <c r="BJ19" s="12"/>
     </row>
     <row r="20" spans="3:62" x14ac:dyDescent="0.25">
@@ -1104,7 +963,9 @@
       <c r="AY20" s="3"/>
       <c r="AZ20" s="10"/>
       <c r="BA20" s="10"/>
-      <c r="BJ20" s="13"/>
+      <c r="BJ20" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C21" s="16"/>
@@ -1149,7 +1010,9 @@
     </row>
     <row r="22" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C22" s="16"/>
-      <c r="Q22" s="4"/>
+      <c r="Q22" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
@@ -1190,213 +1053,77 @@
     </row>
     <row r="23" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C23" s="16"/>
-      <c r="Q23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="8"/>
+      <c r="Q23" s="14">
+        <v>0</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
       <c r="W23" s="9"/>
-      <c r="X23" s="7"/>
+      <c r="X23" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
       <c r="AD23" s="9"/>
-      <c r="AE23" s="7"/>
+      <c r="AE23" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
       <c r="AI23" s="8"/>
       <c r="AJ23" s="8"/>
       <c r="AK23" s="9"/>
-      <c r="AL23" s="7"/>
+      <c r="AL23" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="AM23" s="8"/>
       <c r="AN23" s="8"/>
       <c r="AO23" s="8"/>
       <c r="AP23" s="8"/>
       <c r="AQ23" s="8"/>
       <c r="AR23" s="9"/>
-      <c r="AS23" s="7"/>
+      <c r="AS23" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="AT23" s="8"/>
       <c r="AU23" s="8"/>
       <c r="AV23" s="8"/>
       <c r="AW23" s="8"/>
       <c r="AX23" s="8"/>
       <c r="AY23" s="9"/>
-      <c r="AZ23" s="10"/>
+      <c r="AZ23" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="BA23" s="10"/>
       <c r="BJ23" s="12"/>
     </row>
     <row r="24" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C24" s="16"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="2"/>
-      <c r="AN24" s="2"/>
-      <c r="AO24" s="2"/>
-      <c r="AP24" s="2"/>
-      <c r="AQ24" s="2"/>
-      <c r="AR24" s="3"/>
-      <c r="AS24" s="1"/>
-      <c r="AT24" s="2"/>
-      <c r="AU24" s="2"/>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
-      <c r="AX24" s="2"/>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="10"/>
-      <c r="BA24" s="10"/>
       <c r="BJ24" s="12"/>
     </row>
     <row r="25" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C25" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="6"/>
-      <c r="AL25" s="4"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-      <c r="AR25" s="6"/>
-      <c r="AS25" s="4"/>
-      <c r="AT25" s="5"/>
-      <c r="AU25" s="5"/>
-      <c r="AV25" s="5"/>
-      <c r="AW25" s="5"/>
-      <c r="AX25" s="5"/>
-      <c r="AY25" s="6"/>
-      <c r="AZ25" s="10"/>
-      <c r="BA25" s="10"/>
-      <c r="BJ25" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="BJ25" s="13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C26" s="15"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="5"/>
-      <c r="AP26" s="5"/>
-      <c r="AQ26" s="5"/>
-      <c r="AR26" s="6"/>
-      <c r="AS26" s="4"/>
-      <c r="AT26" s="5"/>
-      <c r="AU26" s="5"/>
-      <c r="AV26" s="5"/>
-      <c r="AW26" s="5"/>
-      <c r="AX26" s="5"/>
-      <c r="AY26" s="6"/>
-      <c r="AZ26" s="10"/>
-      <c r="BA26" s="10"/>
       <c r="BJ26" s="11"/>
     </row>
     <row r="27" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C27" s="16"/>
-      <c r="Q27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="8"/>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="8"/>
-      <c r="AK27" s="9"/>
-      <c r="AL27" s="7"/>
-      <c r="AM27" s="8"/>
-      <c r="AN27" s="8"/>
-      <c r="AO27" s="8"/>
-      <c r="AP27" s="8"/>
-      <c r="AQ27" s="8"/>
-      <c r="AR27" s="9"/>
-      <c r="AS27" s="7"/>
-      <c r="AT27" s="8"/>
-      <c r="AU27" s="8"/>
-      <c r="AV27" s="8"/>
-      <c r="AW27" s="8"/>
-      <c r="AX27" s="8"/>
-      <c r="AY27" s="9"/>
-      <c r="AZ27" s="10"/>
-      <c r="BA27" s="10"/>
       <c r="BJ27" s="12"/>
     </row>
     <row r="28" spans="3:62" x14ac:dyDescent="0.25">
@@ -1409,20 +1136,170 @@
     </row>
     <row r="30" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C30" s="16"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="10"/>
+      <c r="BA30" s="10"/>
       <c r="BJ30" s="13"/>
     </row>
     <row r="31" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C31" s="16"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="4"/>
+      <c r="AT31" s="5"/>
+      <c r="AU31" s="5"/>
+      <c r="AV31" s="5"/>
+      <c r="AW31" s="5"/>
+      <c r="AX31" s="5"/>
+      <c r="AY31" s="6"/>
+      <c r="AZ31" s="10"/>
+      <c r="BA31" s="10"/>
       <c r="BJ31" s="11"/>
     </row>
     <row r="32" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C32" s="16"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="6"/>
+      <c r="AS32" s="4"/>
+      <c r="AT32" s="5"/>
+      <c r="AU32" s="5"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="5"/>
+      <c r="AX32" s="5"/>
+      <c r="AY32" s="6"/>
+      <c r="AZ32" s="10"/>
+      <c r="BA32" s="10"/>
       <c r="BJ32" s="12"/>
     </row>
     <row r="33" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C33" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="8"/>
+      <c r="AN33" s="8"/>
+      <c r="AO33" s="8"/>
+      <c r="AP33" s="8"/>
+      <c r="AQ33" s="8"/>
+      <c r="AR33" s="9"/>
+      <c r="AS33" s="7"/>
+      <c r="AT33" s="8"/>
+      <c r="AU33" s="8"/>
+      <c r="AV33" s="8"/>
+      <c r="AW33" s="8"/>
+      <c r="AX33" s="8"/>
+      <c r="AY33" s="9"/>
+      <c r="AZ33" s="10"/>
+      <c r="BA33" s="10"/>
       <c r="BJ33" s="12"/>
     </row>
     <row r="34" spans="3:62" x14ac:dyDescent="0.25">
@@ -1551,7 +1428,7 @@
     <row r="37" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C37" s="16"/>
       <c r="Q37" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
@@ -1593,170 +1470,20 @@
     </row>
     <row r="38" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C38" s="16"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="2"/>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="2"/>
-      <c r="AI38" s="2"/>
-      <c r="AJ38" s="2"/>
-      <c r="AK38" s="3"/>
-      <c r="AL38" s="1"/>
-      <c r="AM38" s="2"/>
-      <c r="AN38" s="2"/>
-      <c r="AO38" s="2"/>
-      <c r="AP38" s="2"/>
-      <c r="AQ38" s="2"/>
-      <c r="AR38" s="3"/>
-      <c r="AS38" s="1"/>
-      <c r="AT38" s="2"/>
-      <c r="AU38" s="2"/>
-      <c r="AV38" s="2"/>
-      <c r="AW38" s="2"/>
-      <c r="AX38" s="2"/>
-      <c r="AY38" s="3"/>
-      <c r="AZ38" s="10"/>
-      <c r="BA38" s="10"/>
       <c r="BJ38" s="12"/>
     </row>
     <row r="39" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C39" s="16"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="6"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="6"/>
-      <c r="AL39" s="4"/>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
-      <c r="AO39" s="5"/>
-      <c r="AP39" s="5"/>
-      <c r="AQ39" s="5"/>
-      <c r="AR39" s="6"/>
-      <c r="AS39" s="4"/>
-      <c r="AT39" s="5"/>
-      <c r="AU39" s="5"/>
-      <c r="AV39" s="5"/>
-      <c r="AW39" s="5"/>
-      <c r="AX39" s="5"/>
-      <c r="AY39" s="6"/>
-      <c r="AZ39" s="10"/>
-      <c r="BA39" s="10"/>
       <c r="BJ39" s="12"/>
     </row>
     <row r="40" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C40" s="16"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="4"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
-      <c r="AI40" s="5"/>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="6"/>
-      <c r="AL40" s="4"/>
-      <c r="AM40" s="5"/>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="5"/>
-      <c r="AP40" s="5"/>
-      <c r="AQ40" s="5"/>
-      <c r="AR40" s="6"/>
-      <c r="AS40" s="4"/>
-      <c r="AT40" s="5"/>
-      <c r="AU40" s="5"/>
-      <c r="AV40" s="5"/>
-      <c r="AW40" s="5"/>
-      <c r="AX40" s="5"/>
-      <c r="AY40" s="6"/>
-      <c r="AZ40" s="10"/>
-      <c r="BA40" s="10"/>
       <c r="BJ40" s="13"/>
     </row>
     <row r="41" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C41" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
-      <c r="AD41" s="9"/>
-      <c r="AE41" s="7"/>
-      <c r="AF41" s="8"/>
-      <c r="AG41" s="8"/>
-      <c r="AH41" s="8"/>
-      <c r="AI41" s="8"/>
-      <c r="AJ41" s="8"/>
-      <c r="AK41" s="9"/>
-      <c r="AL41" s="7"/>
-      <c r="AM41" s="8"/>
-      <c r="AN41" s="8"/>
-      <c r="AO41" s="8"/>
-      <c r="AP41" s="8"/>
-      <c r="AQ41" s="8"/>
-      <c r="AR41" s="9"/>
-      <c r="AS41" s="7"/>
-      <c r="AT41" s="8"/>
-      <c r="AU41" s="8"/>
-      <c r="AV41" s="8"/>
-      <c r="AW41" s="8"/>
-      <c r="AX41" s="8"/>
-      <c r="AY41" s="9"/>
-      <c r="AZ41" s="10"/>
-      <c r="BA41" s="10"/>
+        <v>27</v>
+      </c>
       <c r="BJ41" s="11"/>
     </row>
     <row r="42" spans="3:62" x14ac:dyDescent="0.25">
@@ -1769,18 +1496,168 @@
     </row>
     <row r="44" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C44" s="16"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="3"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="2"/>
+      <c r="AN44" s="2"/>
+      <c r="AO44" s="2"/>
+      <c r="AP44" s="2"/>
+      <c r="AQ44" s="2"/>
+      <c r="AR44" s="3"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="2"/>
+      <c r="AU44" s="2"/>
+      <c r="AV44" s="2"/>
+      <c r="AW44" s="2"/>
+      <c r="AX44" s="2"/>
+      <c r="AY44" s="3"/>
+      <c r="AZ44" s="10"/>
+      <c r="BA44" s="10"/>
       <c r="BJ44" s="12"/>
     </row>
     <row r="45" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C45" s="16"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="6"/>
+      <c r="AS45" s="4"/>
+      <c r="AT45" s="5"/>
+      <c r="AU45" s="5"/>
+      <c r="AV45" s="5"/>
+      <c r="AW45" s="5"/>
+      <c r="AX45" s="5"/>
+      <c r="AY45" s="6"/>
+      <c r="AZ45" s="10"/>
+      <c r="BA45" s="10"/>
       <c r="BJ45" s="13"/>
     </row>
     <row r="46" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C46" s="16"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="6"/>
+      <c r="AL46" s="4"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="6"/>
+      <c r="AS46" s="4"/>
+      <c r="AT46" s="5"/>
+      <c r="AU46" s="5"/>
+      <c r="AV46" s="5"/>
+      <c r="AW46" s="5"/>
+      <c r="AX46" s="5"/>
+      <c r="AY46" s="6"/>
+      <c r="AZ46" s="10"/>
+      <c r="BA46" s="10"/>
       <c r="BJ46" s="11"/>
     </row>
     <row r="47" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C47" s="16"/>
+      <c r="Q47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="9"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="8"/>
+      <c r="AN47" s="8"/>
+      <c r="AO47" s="8"/>
+      <c r="AP47" s="8"/>
+      <c r="AQ47" s="8"/>
+      <c r="AR47" s="9"/>
+      <c r="AS47" s="7"/>
+      <c r="AT47" s="8"/>
+      <c r="AU47" s="8"/>
+      <c r="AV47" s="8"/>
+      <c r="AW47" s="8"/>
+      <c r="AX47" s="8"/>
+      <c r="AY47" s="9"/>
+      <c r="AZ47" s="10"/>
+      <c r="BA47" s="10"/>
       <c r="BJ47" s="12"/>
     </row>
     <row r="48" spans="3:62" x14ac:dyDescent="0.25">
@@ -1826,7 +1703,7 @@
     </row>
     <row r="49" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C49" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q49" s="4"/>
       <c r="R49" s="5"/>
@@ -1911,7 +1788,7 @@
     <row r="51" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C51" s="16"/>
       <c r="Q51" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R51" s="8"/>
       <c r="S51" s="8"/>
@@ -1953,168 +1830,18 @@
     </row>
     <row r="52" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C52" s="16"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
-      <c r="AB52" s="2"/>
-      <c r="AC52" s="2"/>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="2"/>
-      <c r="AG52" s="2"/>
-      <c r="AH52" s="2"/>
-      <c r="AI52" s="2"/>
-      <c r="AJ52" s="2"/>
-      <c r="AK52" s="3"/>
-      <c r="AL52" s="1"/>
-      <c r="AM52" s="2"/>
-      <c r="AN52" s="2"/>
-      <c r="AO52" s="2"/>
-      <c r="AP52" s="2"/>
-      <c r="AQ52" s="2"/>
-      <c r="AR52" s="3"/>
-      <c r="AS52" s="1"/>
-      <c r="AT52" s="2"/>
-      <c r="AU52" s="2"/>
-      <c r="AV52" s="2"/>
-      <c r="AW52" s="2"/>
-      <c r="AX52" s="2"/>
-      <c r="AY52" s="3"/>
-      <c r="AZ52" s="10"/>
-      <c r="BA52" s="10"/>
       <c r="BJ52" s="12"/>
     </row>
     <row r="53" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C53" s="16"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="6"/>
-      <c r="AE53" s="4"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="5"/>
-      <c r="AH53" s="5"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="6"/>
-      <c r="AL53" s="4"/>
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="5"/>
-      <c r="AO53" s="5"/>
-      <c r="AP53" s="5"/>
-      <c r="AQ53" s="5"/>
-      <c r="AR53" s="6"/>
-      <c r="AS53" s="4"/>
-      <c r="AT53" s="5"/>
-      <c r="AU53" s="5"/>
-      <c r="AV53" s="5"/>
-      <c r="AW53" s="5"/>
-      <c r="AX53" s="5"/>
-      <c r="AY53" s="6"/>
-      <c r="AZ53" s="10"/>
-      <c r="BA53" s="10"/>
       <c r="BJ53" s="12"/>
     </row>
     <row r="54" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C54" s="16"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="6"/>
-      <c r="AE54" s="4"/>
-      <c r="AF54" s="5"/>
-      <c r="AG54" s="5"/>
-      <c r="AH54" s="5"/>
-      <c r="AI54" s="5"/>
-      <c r="AJ54" s="5"/>
-      <c r="AK54" s="6"/>
-      <c r="AL54" s="4"/>
-      <c r="AM54" s="5"/>
-      <c r="AN54" s="5"/>
-      <c r="AO54" s="5"/>
-      <c r="AP54" s="5"/>
-      <c r="AQ54" s="5"/>
-      <c r="AR54" s="6"/>
-      <c r="AS54" s="4"/>
-      <c r="AT54" s="5"/>
-      <c r="AU54" s="5"/>
-      <c r="AV54" s="5"/>
-      <c r="AW54" s="5"/>
-      <c r="AX54" s="5"/>
-      <c r="AY54" s="6"/>
-      <c r="AZ54" s="10"/>
-      <c r="BA54" s="10"/>
       <c r="BJ54" s="12"/>
     </row>
     <row r="55" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C55" s="16"/>
-      <c r="Q55" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="8"/>
-      <c r="AD55" s="9"/>
-      <c r="AE55" s="7"/>
-      <c r="AF55" s="8"/>
-      <c r="AG55" s="8"/>
-      <c r="AH55" s="8"/>
-      <c r="AI55" s="8"/>
-      <c r="AJ55" s="8"/>
-      <c r="AK55" s="9"/>
-      <c r="AL55" s="7"/>
-      <c r="AM55" s="8"/>
-      <c r="AN55" s="8"/>
-      <c r="AO55" s="8"/>
-      <c r="AP55" s="8"/>
-      <c r="AQ55" s="8"/>
-      <c r="AR55" s="9"/>
-      <c r="AS55" s="7"/>
-      <c r="AT55" s="8"/>
-      <c r="AU55" s="8"/>
-      <c r="AV55" s="8"/>
-      <c r="AW55" s="8"/>
-      <c r="AX55" s="8"/>
-      <c r="AY55" s="9"/>
-      <c r="AZ55" s="10"/>
-      <c r="BA55" s="10"/>
       <c r="BJ55" s="13"/>
     </row>
     <row r="56" spans="3:62" x14ac:dyDescent="0.25">
@@ -2123,24 +1850,174 @@
     </row>
     <row r="57" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C57" s="17" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="BJ57" s="12"/>
     </row>
     <row r="58" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C58" s="15"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="2"/>
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="2"/>
+      <c r="AJ58" s="2"/>
+      <c r="AK58" s="3"/>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="2"/>
+      <c r="AN58" s="2"/>
+      <c r="AO58" s="2"/>
+      <c r="AP58" s="2"/>
+      <c r="AQ58" s="2"/>
+      <c r="AR58" s="3"/>
+      <c r="AS58" s="1"/>
+      <c r="AT58" s="2"/>
+      <c r="AU58" s="2"/>
+      <c r="AV58" s="2"/>
+      <c r="AW58" s="2"/>
+      <c r="AX58" s="2"/>
+      <c r="AY58" s="3"/>
+      <c r="AZ58" s="10"/>
+      <c r="BA58" s="10"/>
       <c r="BJ58" s="12"/>
     </row>
     <row r="59" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C59" s="16"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="5"/>
+      <c r="AJ59" s="5"/>
+      <c r="AK59" s="6"/>
+      <c r="AL59" s="4"/>
+      <c r="AM59" s="5"/>
+      <c r="AN59" s="5"/>
+      <c r="AO59" s="5"/>
+      <c r="AP59" s="5"/>
+      <c r="AQ59" s="5"/>
+      <c r="AR59" s="6"/>
+      <c r="AS59" s="4"/>
+      <c r="AT59" s="5"/>
+      <c r="AU59" s="5"/>
+      <c r="AV59" s="5"/>
+      <c r="AW59" s="5"/>
+      <c r="AX59" s="5"/>
+      <c r="AY59" s="6"/>
+      <c r="AZ59" s="10"/>
+      <c r="BA59" s="10"/>
       <c r="BJ59" s="12"/>
     </row>
     <row r="60" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C60" s="16"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="4"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5"/>
+      <c r="AK60" s="6"/>
+      <c r="AL60" s="4"/>
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="5"/>
+      <c r="AO60" s="5"/>
+      <c r="AP60" s="5"/>
+      <c r="AQ60" s="5"/>
+      <c r="AR60" s="6"/>
+      <c r="AS60" s="4"/>
+      <c r="AT60" s="5"/>
+      <c r="AU60" s="5"/>
+      <c r="AV60" s="5"/>
+      <c r="AW60" s="5"/>
+      <c r="AX60" s="5"/>
+      <c r="AY60" s="6"/>
+      <c r="AZ60" s="10"/>
+      <c r="BA60" s="10"/>
       <c r="BJ60" s="13"/>
     </row>
     <row r="61" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C61" s="16"/>
+      <c r="Q61" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="9"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="8"/>
+      <c r="AK61" s="9"/>
+      <c r="AL61" s="7"/>
+      <c r="AM61" s="8"/>
+      <c r="AN61" s="8"/>
+      <c r="AO61" s="8"/>
+      <c r="AP61" s="8"/>
+      <c r="AQ61" s="8"/>
+      <c r="AR61" s="9"/>
+      <c r="AS61" s="7"/>
+      <c r="AT61" s="8"/>
+      <c r="AU61" s="8"/>
+      <c r="AV61" s="8"/>
+      <c r="AW61" s="8"/>
+      <c r="AX61" s="8"/>
+      <c r="AY61" s="9"/>
+      <c r="AZ61" s="10"/>
+      <c r="BA61" s="10"/>
       <c r="BJ61" s="11"/>
     </row>
     <row r="62" spans="3:62" x14ac:dyDescent="0.25">
@@ -2268,10 +2145,10 @@
     </row>
     <row r="65" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C65" s="17" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
@@ -2313,168 +2190,18 @@
     </row>
     <row r="66" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C66" s="15"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
-      <c r="W66" s="3"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
-      <c r="AA66" s="2"/>
-      <c r="AB66" s="2"/>
-      <c r="AC66" s="2"/>
-      <c r="AD66" s="3"/>
-      <c r="AE66" s="1"/>
-      <c r="AF66" s="2"/>
-      <c r="AG66" s="2"/>
-      <c r="AH66" s="2"/>
-      <c r="AI66" s="2"/>
-      <c r="AJ66" s="2"/>
-      <c r="AK66" s="3"/>
-      <c r="AL66" s="1"/>
-      <c r="AM66" s="2"/>
-      <c r="AN66" s="2"/>
-      <c r="AO66" s="2"/>
-      <c r="AP66" s="2"/>
-      <c r="AQ66" s="2"/>
-      <c r="AR66" s="3"/>
-      <c r="AS66" s="1"/>
-      <c r="AT66" s="2"/>
-      <c r="AU66" s="2"/>
-      <c r="AV66" s="2"/>
-      <c r="AW66" s="2"/>
-      <c r="AX66" s="2"/>
-      <c r="AY66" s="3"/>
-      <c r="AZ66" s="10"/>
-      <c r="BA66" s="10"/>
       <c r="BJ66" s="11"/>
     </row>
     <row r="67" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C67" s="16"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="4"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="5"/>
-      <c r="AB67" s="5"/>
-      <c r="AC67" s="5"/>
-      <c r="AD67" s="6"/>
-      <c r="AE67" s="4"/>
-      <c r="AF67" s="5"/>
-      <c r="AG67" s="5"/>
-      <c r="AH67" s="5"/>
-      <c r="AI67" s="5"/>
-      <c r="AJ67" s="5"/>
-      <c r="AK67" s="6"/>
-      <c r="AL67" s="4"/>
-      <c r="AM67" s="5"/>
-      <c r="AN67" s="5"/>
-      <c r="AO67" s="5"/>
-      <c r="AP67" s="5"/>
-      <c r="AQ67" s="5"/>
-      <c r="AR67" s="6"/>
-      <c r="AS67" s="4"/>
-      <c r="AT67" s="5"/>
-      <c r="AU67" s="5"/>
-      <c r="AV67" s="5"/>
-      <c r="AW67" s="5"/>
-      <c r="AX67" s="5"/>
-      <c r="AY67" s="6"/>
-      <c r="AZ67" s="10"/>
-      <c r="BA67" s="10"/>
       <c r="BJ67" s="12"/>
     </row>
     <row r="68" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C68" s="16"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-      <c r="AA68" s="5"/>
-      <c r="AB68" s="5"/>
-      <c r="AC68" s="5"/>
-      <c r="AD68" s="6"/>
-      <c r="AE68" s="4"/>
-      <c r="AF68" s="5"/>
-      <c r="AG68" s="5"/>
-      <c r="AH68" s="5"/>
-      <c r="AI68" s="5"/>
-      <c r="AJ68" s="5"/>
-      <c r="AK68" s="6"/>
-      <c r="AL68" s="4"/>
-      <c r="AM68" s="5"/>
-      <c r="AN68" s="5"/>
-      <c r="AO68" s="5"/>
-      <c r="AP68" s="5"/>
-      <c r="AQ68" s="5"/>
-      <c r="AR68" s="6"/>
-      <c r="AS68" s="4"/>
-      <c r="AT68" s="5"/>
-      <c r="AU68" s="5"/>
-      <c r="AV68" s="5"/>
-      <c r="AW68" s="5"/>
-      <c r="AX68" s="5"/>
-      <c r="AY68" s="6"/>
-      <c r="AZ68" s="10"/>
-      <c r="BA68" s="10"/>
       <c r="BJ68" s="12"/>
     </row>
     <row r="69" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C69" s="16"/>
-      <c r="Q69" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
-      <c r="V69" s="8"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="7"/>
-      <c r="Y69" s="8"/>
-      <c r="Z69" s="8"/>
-      <c r="AA69" s="8"/>
-      <c r="AB69" s="8"/>
-      <c r="AC69" s="8"/>
-      <c r="AD69" s="9"/>
-      <c r="AE69" s="7"/>
-      <c r="AF69" s="8"/>
-      <c r="AG69" s="8"/>
-      <c r="AH69" s="8"/>
-      <c r="AI69" s="8"/>
-      <c r="AJ69" s="8"/>
-      <c r="AK69" s="9"/>
-      <c r="AL69" s="7"/>
-      <c r="AM69" s="8"/>
-      <c r="AN69" s="8"/>
-      <c r="AO69" s="8"/>
-      <c r="AP69" s="8"/>
-      <c r="AQ69" s="8"/>
-      <c r="AR69" s="9"/>
-      <c r="AS69" s="7"/>
-      <c r="AT69" s="8"/>
-      <c r="AU69" s="8"/>
-      <c r="AV69" s="8"/>
-      <c r="AW69" s="8"/>
-      <c r="AX69" s="8"/>
-      <c r="AY69" s="9"/>
-      <c r="AZ69" s="10"/>
-      <c r="BA69" s="10"/>
       <c r="BJ69" s="12"/>
     </row>
     <row r="70" spans="3:62" x14ac:dyDescent="0.25">
@@ -2487,20 +2214,170 @@
     </row>
     <row r="72" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C72" s="16"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="1"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="2"/>
+      <c r="AD72" s="3"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="2"/>
+      <c r="AG72" s="2"/>
+      <c r="AH72" s="2"/>
+      <c r="AI72" s="2"/>
+      <c r="AJ72" s="2"/>
+      <c r="AK72" s="3"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="2"/>
+      <c r="AN72" s="2"/>
+      <c r="AO72" s="2"/>
+      <c r="AP72" s="2"/>
+      <c r="AQ72" s="2"/>
+      <c r="AR72" s="3"/>
+      <c r="AS72" s="1"/>
+      <c r="AT72" s="2"/>
+      <c r="AU72" s="2"/>
+      <c r="AV72" s="2"/>
+      <c r="AW72" s="2"/>
+      <c r="AX72" s="2"/>
+      <c r="AY72" s="3"/>
+      <c r="AZ72" s="10"/>
+      <c r="BA72" s="10"/>
       <c r="BJ72" s="12"/>
     </row>
     <row r="73" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C73" s="17" t="s">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="6"/>
+      <c r="AE73" s="4"/>
+      <c r="AF73" s="5"/>
+      <c r="AG73" s="5"/>
+      <c r="AH73" s="5"/>
+      <c r="AI73" s="5"/>
+      <c r="AJ73" s="5"/>
+      <c r="AK73" s="6"/>
+      <c r="AL73" s="4"/>
+      <c r="AM73" s="5"/>
+      <c r="AN73" s="5"/>
+      <c r="AO73" s="5"/>
+      <c r="AP73" s="5"/>
+      <c r="AQ73" s="5"/>
+      <c r="AR73" s="6"/>
+      <c r="AS73" s="4"/>
+      <c r="AT73" s="5"/>
+      <c r="AU73" s="5"/>
+      <c r="AV73" s="5"/>
+      <c r="AW73" s="5"/>
+      <c r="AX73" s="5"/>
+      <c r="AY73" s="6"/>
+      <c r="AZ73" s="10"/>
+      <c r="BA73" s="10"/>
       <c r="BJ73" s="12"/>
     </row>
     <row r="74" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C74" s="15"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="6"/>
+      <c r="AE74" s="4"/>
+      <c r="AF74" s="5"/>
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5"/>
+      <c r="AK74" s="6"/>
+      <c r="AL74" s="4"/>
+      <c r="AM74" s="5"/>
+      <c r="AN74" s="5"/>
+      <c r="AO74" s="5"/>
+      <c r="AP74" s="5"/>
+      <c r="AQ74" s="5"/>
+      <c r="AR74" s="6"/>
+      <c r="AS74" s="4"/>
+      <c r="AT74" s="5"/>
+      <c r="AU74" s="5"/>
+      <c r="AV74" s="5"/>
+      <c r="AW74" s="5"/>
+      <c r="AX74" s="5"/>
+      <c r="AY74" s="6"/>
+      <c r="AZ74" s="10"/>
+      <c r="BA74" s="10"/>
       <c r="BJ74" s="12"/>
     </row>
     <row r="75" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C75" s="16"/>
+      <c r="Q75" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="8"/>
+      <c r="AB75" s="8"/>
+      <c r="AC75" s="8"/>
+      <c r="AD75" s="9"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="8"/>
+      <c r="AG75" s="8"/>
+      <c r="AH75" s="8"/>
+      <c r="AI75" s="8"/>
+      <c r="AJ75" s="8"/>
+      <c r="AK75" s="9"/>
+      <c r="AL75" s="7"/>
+      <c r="AM75" s="8"/>
+      <c r="AN75" s="8"/>
+      <c r="AO75" s="8"/>
+      <c r="AP75" s="8"/>
+      <c r="AQ75" s="8"/>
+      <c r="AR75" s="9"/>
+      <c r="AS75" s="7"/>
+      <c r="AT75" s="8"/>
+      <c r="AU75" s="8"/>
+      <c r="AV75" s="8"/>
+      <c r="AW75" s="8"/>
+      <c r="AX75" s="8"/>
+      <c r="AY75" s="9"/>
+      <c r="AZ75" s="10"/>
+      <c r="BA75" s="10"/>
       <c r="BJ75" s="13"/>
     </row>
     <row r="76" spans="3:62" x14ac:dyDescent="0.25">
@@ -2629,7 +2506,7 @@
     <row r="79" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C79" s="16"/>
       <c r="Q79" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R79" s="8"/>
       <c r="S79" s="8"/>
@@ -2671,170 +2548,20 @@
     </row>
     <row r="80" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C80" s="16"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="3"/>
-      <c r="X80" s="1"/>
-      <c r="Y80" s="2"/>
-      <c r="Z80" s="2"/>
-      <c r="AA80" s="2"/>
-      <c r="AB80" s="2"/>
-      <c r="AC80" s="2"/>
-      <c r="AD80" s="3"/>
-      <c r="AE80" s="1"/>
-      <c r="AF80" s="2"/>
-      <c r="AG80" s="2"/>
-      <c r="AH80" s="2"/>
-      <c r="AI80" s="2"/>
-      <c r="AJ80" s="2"/>
-      <c r="AK80" s="3"/>
-      <c r="AL80" s="1"/>
-      <c r="AM80" s="2"/>
-      <c r="AN80" s="2"/>
-      <c r="AO80" s="2"/>
-      <c r="AP80" s="2"/>
-      <c r="AQ80" s="2"/>
-      <c r="AR80" s="3"/>
-      <c r="AS80" s="1"/>
-      <c r="AT80" s="2"/>
-      <c r="AU80" s="2"/>
-      <c r="AV80" s="2"/>
-      <c r="AW80" s="2"/>
-      <c r="AX80" s="2"/>
-      <c r="AY80" s="3"/>
-      <c r="AZ80" s="10"/>
-      <c r="BA80" s="10"/>
       <c r="BJ80" s="13"/>
     </row>
     <row r="81" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C81" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
-      <c r="V81" s="5"/>
-      <c r="W81" s="6"/>
-      <c r="X81" s="4"/>
-      <c r="Y81" s="5"/>
-      <c r="Z81" s="5"/>
-      <c r="AA81" s="5"/>
-      <c r="AB81" s="5"/>
-      <c r="AC81" s="5"/>
-      <c r="AD81" s="6"/>
-      <c r="AE81" s="4"/>
-      <c r="AF81" s="5"/>
-      <c r="AG81" s="5"/>
-      <c r="AH81" s="5"/>
-      <c r="AI81" s="5"/>
-      <c r="AJ81" s="5"/>
-      <c r="AK81" s="6"/>
-      <c r="AL81" s="4"/>
-      <c r="AM81" s="5"/>
-      <c r="AN81" s="5"/>
-      <c r="AO81" s="5"/>
-      <c r="AP81" s="5"/>
-      <c r="AQ81" s="5"/>
-      <c r="AR81" s="6"/>
-      <c r="AS81" s="4"/>
-      <c r="AT81" s="5"/>
-      <c r="AU81" s="5"/>
-      <c r="AV81" s="5"/>
-      <c r="AW81" s="5"/>
-      <c r="AX81" s="5"/>
-      <c r="AY81" s="6"/>
-      <c r="AZ81" s="10"/>
-      <c r="BA81" s="10"/>
+        <v>19</v>
+      </c>
       <c r="BJ81" s="11"/>
     </row>
     <row r="82" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C82" s="15"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="6"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="5"/>
-      <c r="AC82" s="5"/>
-      <c r="AD82" s="6"/>
-      <c r="AE82" s="4"/>
-      <c r="AF82" s="5"/>
-      <c r="AG82" s="5"/>
-      <c r="AH82" s="5"/>
-      <c r="AI82" s="5"/>
-      <c r="AJ82" s="5"/>
-      <c r="AK82" s="6"/>
-      <c r="AL82" s="4"/>
-      <c r="AM82" s="5"/>
-      <c r="AN82" s="5"/>
-      <c r="AO82" s="5"/>
-      <c r="AP82" s="5"/>
-      <c r="AQ82" s="5"/>
-      <c r="AR82" s="6"/>
-      <c r="AS82" s="4"/>
-      <c r="AT82" s="5"/>
-      <c r="AU82" s="5"/>
-      <c r="AV82" s="5"/>
-      <c r="AW82" s="5"/>
-      <c r="AX82" s="5"/>
-      <c r="AY82" s="6"/>
-      <c r="AZ82" s="10"/>
-      <c r="BA82" s="10"/>
       <c r="BJ82" s="12"/>
     </row>
     <row r="83" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C83" s="16"/>
-      <c r="Q83" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R83" s="8"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8"/>
-      <c r="U83" s="8"/>
-      <c r="V83" s="8"/>
-      <c r="W83" s="9"/>
-      <c r="X83" s="7"/>
-      <c r="Y83" s="8"/>
-      <c r="Z83" s="8"/>
-      <c r="AA83" s="8"/>
-      <c r="AB83" s="8"/>
-      <c r="AC83" s="8"/>
-      <c r="AD83" s="9"/>
-      <c r="AE83" s="7"/>
-      <c r="AF83" s="8"/>
-      <c r="AG83" s="8"/>
-      <c r="AH83" s="8"/>
-      <c r="AI83" s="8"/>
-      <c r="AJ83" s="8"/>
-      <c r="AK83" s="9"/>
-      <c r="AL83" s="7"/>
-      <c r="AM83" s="8"/>
-      <c r="AN83" s="8"/>
-      <c r="AO83" s="8"/>
-      <c r="AP83" s="8"/>
-      <c r="AQ83" s="8"/>
-      <c r="AR83" s="9"/>
-      <c r="AS83" s="7"/>
-      <c r="AT83" s="8"/>
-      <c r="AU83" s="8"/>
-      <c r="AV83" s="8"/>
-      <c r="AW83" s="8"/>
-      <c r="AX83" s="8"/>
-      <c r="AY83" s="9"/>
-      <c r="AZ83" s="10"/>
-      <c r="BA83" s="10"/>
       <c r="BJ83" s="12"/>
     </row>
     <row r="84" spans="3:62" x14ac:dyDescent="0.25">
@@ -2847,15 +2574,351 @@
     </row>
     <row r="86" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C86" s="16"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2"/>
+      <c r="AD86" s="3"/>
+      <c r="AE86" s="1"/>
+      <c r="AF86" s="2"/>
+      <c r="AG86" s="2"/>
+      <c r="AH86" s="2"/>
+      <c r="AI86" s="2"/>
+      <c r="AJ86" s="2"/>
+      <c r="AK86" s="3"/>
+      <c r="AL86" s="1"/>
+      <c r="AM86" s="2"/>
+      <c r="AN86" s="2"/>
+      <c r="AO86" s="2"/>
+      <c r="AP86" s="2"/>
+      <c r="AQ86" s="2"/>
+      <c r="AR86" s="3"/>
+      <c r="AS86" s="1"/>
+      <c r="AT86" s="2"/>
+      <c r="AU86" s="2"/>
+      <c r="AV86" s="2"/>
+      <c r="AW86" s="2"/>
+      <c r="AX86" s="2"/>
+      <c r="AY86" s="3"/>
+      <c r="AZ86" s="10"/>
+      <c r="BA86" s="10"/>
+      <c r="BJ86" s="11"/>
     </row>
     <row r="87" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C87" s="16"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="6"/>
+      <c r="AE87" s="4"/>
+      <c r="AF87" s="5"/>
+      <c r="AG87" s="5"/>
+      <c r="AH87" s="5"/>
+      <c r="AI87" s="5"/>
+      <c r="AJ87" s="5"/>
+      <c r="AK87" s="6"/>
+      <c r="AL87" s="4"/>
+      <c r="AM87" s="5"/>
+      <c r="AN87" s="5"/>
+      <c r="AO87" s="5"/>
+      <c r="AP87" s="5"/>
+      <c r="AQ87" s="5"/>
+      <c r="AR87" s="6"/>
+      <c r="AS87" s="4"/>
+      <c r="AT87" s="5"/>
+      <c r="AU87" s="5"/>
+      <c r="AV87" s="5"/>
+      <c r="AW87" s="5"/>
+      <c r="AX87" s="5"/>
+      <c r="AY87" s="6"/>
+      <c r="AZ87" s="10"/>
+      <c r="BA87" s="10"/>
+      <c r="BJ87" s="12"/>
     </row>
     <row r="88" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C88" s="16"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="4"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="6"/>
+      <c r="AE88" s="4"/>
+      <c r="AF88" s="5"/>
+      <c r="AG88" s="5"/>
+      <c r="AH88" s="5"/>
+      <c r="AI88" s="5"/>
+      <c r="AJ88" s="5"/>
+      <c r="AK88" s="6"/>
+      <c r="AL88" s="4"/>
+      <c r="AM88" s="5"/>
+      <c r="AN88" s="5"/>
+      <c r="AO88" s="5"/>
+      <c r="AP88" s="5"/>
+      <c r="AQ88" s="5"/>
+      <c r="AR88" s="6"/>
+      <c r="AS88" s="4"/>
+      <c r="AT88" s="5"/>
+      <c r="AU88" s="5"/>
+      <c r="AV88" s="5"/>
+      <c r="AW88" s="5"/>
+      <c r="AX88" s="5"/>
+      <c r="AY88" s="6"/>
+      <c r="AZ88" s="10"/>
+      <c r="BA88" s="10"/>
+      <c r="BJ88" s="12"/>
     </row>
     <row r="89" spans="3:62" x14ac:dyDescent="0.25">
       <c r="C89" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q89" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="8"/>
+      <c r="V89" s="8"/>
+      <c r="W89" s="9"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="8"/>
+      <c r="Z89" s="8"/>
+      <c r="AA89" s="8"/>
+      <c r="AB89" s="8"/>
+      <c r="AC89" s="8"/>
+      <c r="AD89" s="9"/>
+      <c r="AE89" s="7"/>
+      <c r="AF89" s="8"/>
+      <c r="AG89" s="8"/>
+      <c r="AH89" s="8"/>
+      <c r="AI89" s="8"/>
+      <c r="AJ89" s="8"/>
+      <c r="AK89" s="9"/>
+      <c r="AL89" s="7"/>
+      <c r="AM89" s="8"/>
+      <c r="AN89" s="8"/>
+      <c r="AO89" s="8"/>
+      <c r="AP89" s="8"/>
+      <c r="AQ89" s="8"/>
+      <c r="AR89" s="9"/>
+      <c r="AS89" s="7"/>
+      <c r="AT89" s="8"/>
+      <c r="AU89" s="8"/>
+      <c r="AV89" s="8"/>
+      <c r="AW89" s="8"/>
+      <c r="AX89" s="8"/>
+      <c r="AY89" s="9"/>
+      <c r="AZ89" s="10"/>
+      <c r="BA89" s="10"/>
+      <c r="BJ89" s="12"/>
+    </row>
+    <row r="90" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C90" s="15"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="2"/>
+      <c r="AG90" s="2"/>
+      <c r="AH90" s="2"/>
+      <c r="AI90" s="2"/>
+      <c r="AJ90" s="2"/>
+      <c r="AK90" s="3"/>
+      <c r="AL90" s="1"/>
+      <c r="AM90" s="2"/>
+      <c r="AN90" s="2"/>
+      <c r="AO90" s="2"/>
+      <c r="AP90" s="2"/>
+      <c r="AQ90" s="2"/>
+      <c r="AR90" s="3"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="2"/>
+      <c r="AU90" s="2"/>
+      <c r="AV90" s="2"/>
+      <c r="AW90" s="2"/>
+      <c r="AX90" s="2"/>
+      <c r="AY90" s="3"/>
+      <c r="AZ90" s="10"/>
+      <c r="BA90" s="10"/>
+      <c r="BJ90" s="13"/>
+    </row>
+    <row r="91" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C91" s="16"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5"/>
+      <c r="AA91" s="5"/>
+      <c r="AB91" s="5"/>
+      <c r="AC91" s="5"/>
+      <c r="AD91" s="6"/>
+      <c r="AE91" s="4"/>
+      <c r="AF91" s="5"/>
+      <c r="AG91" s="5"/>
+      <c r="AH91" s="5"/>
+      <c r="AI91" s="5"/>
+      <c r="AJ91" s="5"/>
+      <c r="AK91" s="6"/>
+      <c r="AL91" s="4"/>
+      <c r="AM91" s="5"/>
+      <c r="AN91" s="5"/>
+      <c r="AO91" s="5"/>
+      <c r="AP91" s="5"/>
+      <c r="AQ91" s="5"/>
+      <c r="AR91" s="6"/>
+      <c r="AS91" s="4"/>
+      <c r="AT91" s="5"/>
+      <c r="AU91" s="5"/>
+      <c r="AV91" s="5"/>
+      <c r="AW91" s="5"/>
+      <c r="AX91" s="5"/>
+      <c r="AY91" s="6"/>
+      <c r="AZ91" s="10"/>
+      <c r="BA91" s="10"/>
+      <c r="BJ91" s="11"/>
+    </row>
+    <row r="92" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C92" s="16"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="6"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="5"/>
+      <c r="AC92" s="5"/>
+      <c r="AD92" s="6"/>
+      <c r="AE92" s="4"/>
+      <c r="AF92" s="5"/>
+      <c r="AG92" s="5"/>
+      <c r="AH92" s="5"/>
+      <c r="AI92" s="5"/>
+      <c r="AJ92" s="5"/>
+      <c r="AK92" s="6"/>
+      <c r="AL92" s="4"/>
+      <c r="AM92" s="5"/>
+      <c r="AN92" s="5"/>
+      <c r="AO92" s="5"/>
+      <c r="AP92" s="5"/>
+      <c r="AQ92" s="5"/>
+      <c r="AR92" s="6"/>
+      <c r="AS92" s="4"/>
+      <c r="AT92" s="5"/>
+      <c r="AU92" s="5"/>
+      <c r="AV92" s="5"/>
+      <c r="AW92" s="5"/>
+      <c r="AX92" s="5"/>
+      <c r="AY92" s="6"/>
+      <c r="AZ92" s="10"/>
+      <c r="BA92" s="10"/>
+      <c r="BJ92" s="12"/>
+    </row>
+    <row r="93" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C93" s="16"/>
+      <c r="Q93" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="8"/>
+      <c r="V93" s="8"/>
+      <c r="W93" s="9"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="8"/>
+      <c r="Z93" s="8"/>
+      <c r="AA93" s="8"/>
+      <c r="AB93" s="8"/>
+      <c r="AC93" s="8"/>
+      <c r="AD93" s="9"/>
+      <c r="AE93" s="7"/>
+      <c r="AF93" s="8"/>
+      <c r="AG93" s="8"/>
+      <c r="AH93" s="8"/>
+      <c r="AI93" s="8"/>
+      <c r="AJ93" s="8"/>
+      <c r="AK93" s="9"/>
+      <c r="AL93" s="7"/>
+      <c r="AM93" s="8"/>
+      <c r="AN93" s="8"/>
+      <c r="AO93" s="8"/>
+      <c r="AP93" s="8"/>
+      <c r="AQ93" s="8"/>
+      <c r="AR93" s="9"/>
+      <c r="AS93" s="7"/>
+      <c r="AT93" s="8"/>
+      <c r="AU93" s="8"/>
+      <c r="AV93" s="8"/>
+      <c r="AW93" s="8"/>
+      <c r="AX93" s="8"/>
+      <c r="AY93" s="9"/>
+      <c r="AZ93" s="10"/>
+      <c r="BA93" s="10"/>
+      <c r="BJ93" s="12"/>
+    </row>
+    <row r="94" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C94" s="16"/>
+      <c r="BJ94" s="12"/>
+    </row>
+    <row r="95" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C95" s="16"/>
+      <c r="BJ95" s="13"/>
+    </row>
+    <row r="96" spans="3:62" x14ac:dyDescent="0.25">
+      <c r="C96" s="16"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="17" t="s">
         <v>21</v>
       </c>
     </row>
